--- a/Product_Backlog.xlsx
+++ b/Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salch\Documents\Schule\5.Klasse\Arbeitszeitverwaltung_Sportcamp_Salcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1352ED2-F67C-44BA-9FE3-877BE4C8D0D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B53D15D-75C2-4E83-9F52-8E85F8321CEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Klassendiagram erstellen</t>
   </si>
   <si>
-    <t>User Stories schreiben</t>
-  </si>
-  <si>
     <t>Projektfindung und Lastenheft</t>
   </si>
   <si>
@@ -70,13 +67,37 @@
   </si>
   <si>
     <t>Technische Dokumentation</t>
+  </si>
+  <si>
+    <t>Done:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Sprint 1 -- 24.10.2019</t>
+  </si>
+  <si>
+    <t>User Stories Map erstellen</t>
+  </si>
+  <si>
+    <t>Mock-Ups Zeichenen/ Brainstorming</t>
+  </si>
+  <si>
+    <t>Planung und Einteilung der Aufgaben</t>
+  </si>
+  <si>
+    <t>Fortlaufende Dokumentation/Change Log</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +114,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -111,13 +140,106 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -127,6 +249,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -140,24 +292,50 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -167,59 +345,124 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,266 +745,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="20"/>
+      <c r="K4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>10</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>12</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="39">
+    <mergeCell ref="K4:N4"/>
     <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="A1:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B8:H8"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
